--- a/AviancaViajes.xlsx
+++ b/AviancaViajes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pazje\Desktop\projectsIntelije\RetoAvianca\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE874E14-F93D-437B-8F4D-129679A2C922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{723A340C-D6BF-4C4C-9CC2-F1BE51ECB65F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2810" yWindow="1170" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,16 +61,16 @@
     <t>2</t>
   </si>
   <si>
-    <t>12-08-2021</t>
-  </si>
-  <si>
     <t>Cali</t>
   </si>
   <si>
-    <t>16-08-2021</t>
-  </si>
-  <si>
     <t>Option</t>
+  </si>
+  <si>
+    <t>08-08-2021</t>
+  </si>
+  <si>
+    <t>07-08-2021</t>
   </si>
 </sst>
 </file>
@@ -419,7 +419,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
@@ -434,7 +436,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -460,52 +462,52 @@
     </row>
     <row r="2" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E2" s="2"/>
       <c r="F2" s="2">
         <v>1</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>12</v>
+      <c r="G2" s="2">
+        <v>1</v>
       </c>
       <c r="H2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="F3" s="2">
         <v>1</v>
       </c>
-      <c r="G3" s="2">
-        <v>1</v>
+      <c r="G3" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="H3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/AviancaViajes.xlsx
+++ b/AviancaViajes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pazje\Desktop\projectsIntelije\RetoAvianca\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{723A340C-D6BF-4C4C-9CC2-F1BE51ECB65F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D87B30F-EBAD-4172-892D-CA9893AFD889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2810" yWindow="1170" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
     <t>08-08-2021</t>
   </si>
   <si>
-    <t>07-08-2021</t>
+    <t>14-08-2021</t>
   </si>
 </sst>
 </file>
